--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>255686.8708956563</v>
+        <v>255686.8708956562</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5095622.684065029</v>
+        <v>5095622.684065033</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22414251.77131046</v>
+        <v>22414251.77131043</v>
       </c>
     </row>
     <row r="9">
@@ -2084,67 +2084,67 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="I20" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="E20" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U21" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,64 +2245,64 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="R22" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="S22" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="T22" t="n">
         <v>22.44875936050941</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,22 +2321,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,73 +2394,73 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="U24" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22.44875936050941</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>27.59002526031614</v>
+        <v>22.4487593605094</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,44 +2567,44 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14.31059503474164</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H26" t="n">
+      <c r="S26" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="S27" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="Y27" t="n">
-        <v>24.30129424928645</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="S29" t="n">
-        <v>24.30129424928645</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>27.59002526031614</v>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2965,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.1792675346265591</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,61 +3029,61 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="E32" t="n">
+      <c r="S32" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.36130568012912</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>24.30129424928645</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,61 +3196,61 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G34" t="n">
+      <c r="W34" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H34" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="I34" t="n">
-        <v>22.44875936050941</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>22.4487593605094</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,70 +3263,70 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C35" t="n">
+      <c r="V35" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>27.59002526031614</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,64 +3351,64 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>24.30129424928645</v>
-      </c>
       <c r="X36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>27.59002526031614</v>
@@ -3430,22 +3430,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I37" t="n">
-        <v>22.44875936050941</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>22.4487593605094</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,61 +3500,61 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C38" t="n">
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D38" t="n">
+      <c r="S38" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="E38" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>24.30129424928645</v>
@@ -3639,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3661,70 +3661,70 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>22.44875936050941</v>
+      </c>
+      <c r="I40" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>22.44875936050941</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,73 +3737,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="X41" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>24.30129424928645</v>
       </c>
       <c r="Y41" t="n">
         <v>27.59002526031614</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3837,55 +3837,55 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="S42" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="T42" t="n">
-        <v>23.55470292302859</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3955,13 +3955,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="V43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="X43" t="n">
-        <v>22.4487593605094</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C20" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D20" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="E20" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="F20" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="G20" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="H20" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="I20" t="n">
         <v>2.207202020825291</v>
@@ -5753,19 +5753,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K20" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L20" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M20" t="n">
-        <v>56.83545203625125</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N20" t="n">
-        <v>84.14957704396423</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O20" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P20" t="n">
         <v>110.3601010412646</v>
@@ -5777,25 +5777,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S20" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T20" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U20" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V20" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W20" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X20" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y20" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C21" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D21" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E21" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F21" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G21" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H21" t="n">
         <v>2.207202020825291</v>
@@ -5835,7 +5835,7 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L21" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M21" t="n">
         <v>55.73185102583861</v>
@@ -5853,28 +5853,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R21" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S21" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T21" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U21" t="n">
-        <v>85.81333917329844</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V21" t="n">
-        <v>57.94462678914073</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W21" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X21" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C22" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D22" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E22" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F22" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G22" t="n">
         <v>2.207202020825291</v>
@@ -5929,31 +5929,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q22" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R22" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S22" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="T22" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="U22" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V22" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W22" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X22" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C23" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D23" t="n">
         <v>85.81333917329844</v>
       </c>
       <c r="E23" t="n">
+        <v>85.81333917329844</v>
+      </c>
+      <c r="F23" t="n">
+        <v>85.81333917329844</v>
+      </c>
+      <c r="G23" t="n">
         <v>57.94462678914073</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="I23" t="n">
         <v>2.207202020825291</v>
@@ -5990,19 +5990,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L23" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M23" t="n">
-        <v>29.52132702853827</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N23" t="n">
-        <v>56.83545203625125</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O23" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P23" t="n">
         <v>110.3601010412646</v>
@@ -6029,10 +6029,10 @@
         <v>110.3601010412646</v>
       </c>
       <c r="X23" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y23" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.7539638887914</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C24" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D24" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E24" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F24" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G24" t="n">
         <v>2.207202020825291</v>
@@ -6069,10 +6069,10 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L24" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M24" t="n">
         <v>55.73185102583861</v>
@@ -6090,28 +6090,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S24" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T24" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U24" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V24" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W24" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X24" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y24" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.207202020825291</v>
+        <v>59.81587415154178</v>
       </c>
       <c r="C25" t="n">
-        <v>2.207202020825291</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="D25" t="n">
-        <v>2.207202020825291</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="E25" t="n">
-        <v>2.207202020825291</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="F25" t="n">
-        <v>2.207202020825291</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="G25" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="H25" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="I25" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="J25" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K25" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L25" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M25" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N25" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O25" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P25" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q25" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R25" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S25" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T25" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U25" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V25" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W25" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X25" t="n">
-        <v>52.75142891054807</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.88271652639035</v>
+        <v>87.68458653569951</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>57.94462678914073</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="C26" t="n">
-        <v>57.94462678914073</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="D26" t="n">
-        <v>57.94462678914073</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="E26" t="n">
-        <v>57.94462678914073</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="F26" t="n">
-        <v>57.94462678914073</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="G26" t="n">
-        <v>30.07591440498301</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="H26" t="n">
-        <v>2.207202020825291</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="I26" t="n">
         <v>2.207202020825291</v>
@@ -6230,46 +6230,46 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L26" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M26" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N26" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O26" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P26" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R26" t="n">
-        <v>85.81333917329844</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S26" t="n">
-        <v>85.81333917329844</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T26" t="n">
-        <v>85.81333917329844</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U26" t="n">
-        <v>85.81333917329844</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V26" t="n">
-        <v>57.94462678914073</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="W26" t="n">
-        <v>57.94462678914073</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="X26" t="n">
-        <v>57.94462678914073</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="Y26" t="n">
-        <v>57.94462678914073</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C27" t="n">
         <v>2.207202020825291</v>
@@ -6309,16 +6309,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L27" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M27" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N27" t="n">
-        <v>28.41772601812563</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O27" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P27" t="n">
         <v>83.04597603355158</v>
@@ -6327,28 +6327,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="S27" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T27" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U27" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="V27" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="W27" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="S27" t="n">
+      <c r="X27" t="n">
         <v>54.62267627294912</v>
       </c>
-      <c r="T27" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="U27" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="V27" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="W27" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>26.7539638887914</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="28">
@@ -6403,31 +6403,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q28" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="R28" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="S28" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="T28" t="n">
         <v>80.62014129470579</v>
       </c>
-      <c r="R28" t="n">
+      <c r="U28" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="V28" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="W28" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="X28" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="Y28" t="n">
         <v>52.75142891054807</v>
-      </c>
-      <c r="S28" t="n">
-        <v>52.75142891054807</v>
-      </c>
-      <c r="T28" t="n">
-        <v>24.88271652639035</v>
-      </c>
-      <c r="U28" t="n">
-        <v>24.88271652639035</v>
-      </c>
-      <c r="V28" t="n">
-        <v>24.88271652639035</v>
-      </c>
-      <c r="W28" t="n">
-        <v>24.88271652639035</v>
-      </c>
-      <c r="X28" t="n">
-        <v>24.88271652639035</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>24.88271652639035</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C29" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D29" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E29" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F29" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G29" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H29" t="n">
         <v>2.207202020825291</v>
@@ -6473,7 +6473,7 @@
         <v>84.14957704396423</v>
       </c>
       <c r="N29" t="n">
-        <v>84.14957704396423</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O29" t="n">
         <v>110.3601010412646</v>
@@ -6482,10 +6482,10 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R29" t="n">
-        <v>82.49138865710684</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S29" t="n">
         <v>57.94462678914073</v>
@@ -6500,13 +6500,13 @@
         <v>57.94462678914073</v>
       </c>
       <c r="W29" t="n">
-        <v>30.07591440498301</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X29" t="n">
-        <v>30.07591440498301</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C30" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D30" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E30" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F30" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G30" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="H30" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I30" t="n">
         <v>2.207202020825291</v>
@@ -6543,19 +6543,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L30" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M30" t="n">
-        <v>29.52132702853827</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N30" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O30" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P30" t="n">
         <v>110.3601010412646</v>
@@ -6567,25 +6567,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T30" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U30" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V30" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W30" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X30" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y30" t="n">
-        <v>57.94462678914073</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="C31" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="D31" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="E31" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="F31" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="G31" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="H31" t="n">
-        <v>2.207202020825291</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="I31" t="n">
-        <v>2.207202020825291</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="J31" t="n">
-        <v>2.207202020825291</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K31" t="n">
         <v>2.207202020825291</v>
@@ -6652,19 +6652,19 @@
         <v>80.62014129470579</v>
       </c>
       <c r="U31" t="n">
-        <v>52.75142891054807</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V31" t="n">
-        <v>24.88271652639035</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W31" t="n">
-        <v>24.88271652639035</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="X31" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.49138865710684</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="C32" t="n">
-        <v>57.94462678914073</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="D32" t="n">
-        <v>30.07591440498301</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="E32" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="F32" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="G32" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H32" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I32" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J32" t="n">
         <v>2.207202020825291</v>
@@ -6704,13 +6704,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L32" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M32" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N32" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O32" t="n">
         <v>110.3601010412646</v>
@@ -6719,31 +6719,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R32" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S32" t="n">
-        <v>110.3601010412646</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T32" t="n">
-        <v>110.3601010412646</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="U32" t="n">
-        <v>110.3601010412646</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="V32" t="n">
-        <v>110.3601010412646</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="W32" t="n">
-        <v>110.3601010412646</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="X32" t="n">
-        <v>110.3601010412646</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.49138865710684</v>
+        <v>14.27719126790864</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C33" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D33" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E33" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F33" t="n">
         <v>2.207202020825291</v>
@@ -6783,13 +6783,13 @@
         <v>28.41772601812563</v>
       </c>
       <c r="L33" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M33" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N33" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O33" t="n">
         <v>55.73185102583861</v>
@@ -6804,25 +6804,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T33" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U33" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V33" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W33" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X33" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.4888536788635</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="C34" t="n">
-        <v>108.4888536788635</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="D34" t="n">
-        <v>108.4888536788635</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="E34" t="n">
-        <v>108.4888536788635</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="F34" t="n">
-        <v>80.62014129470579</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="G34" t="n">
-        <v>52.75142891054807</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="H34" t="n">
-        <v>24.88271652639035</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="I34" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="J34" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K34" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L34" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M34" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N34" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O34" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P34" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q34" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R34" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S34" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T34" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U34" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V34" t="n">
-        <v>108.4888536788635</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W34" t="n">
-        <v>108.4888536788635</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X34" t="n">
-        <v>108.4888536788635</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.4888536788635</v>
+        <v>31.94716176738407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C35" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D35" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E35" t="n">
         <v>2.207202020825291</v>
@@ -6938,13 +6938,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L35" t="n">
-        <v>56.83545203625125</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M35" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N35" t="n">
         <v>83.04597603355158</v>
@@ -6968,19 +6968,19 @@
         <v>110.3601010412646</v>
       </c>
       <c r="U35" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V35" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W35" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X35" t="n">
-        <v>57.94462678914073</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y35" t="n">
-        <v>57.94462678914073</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C36" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D36" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E36" t="n">
         <v>2.207202020825291</v>
@@ -7017,22 +7017,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L36" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L36" t="n">
-        <v>56.83545203625125</v>
-      </c>
       <c r="M36" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N36" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O36" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="P36" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q36" t="n">
         <v>110.3601010412646</v>
@@ -7044,16 +7044,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="T36" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U36" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V36" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W36" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X36" t="n">
         <v>57.94462678914073</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.75142891054807</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C37" t="n">
-        <v>52.75142891054807</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D37" t="n">
-        <v>52.75142891054807</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E37" t="n">
-        <v>24.88271652639035</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="F37" t="n">
-        <v>24.88271652639035</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="G37" t="n">
-        <v>24.88271652639035</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="H37" t="n">
-        <v>24.88271652639035</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="I37" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="J37" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K37" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L37" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M37" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N37" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O37" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P37" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R37" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S37" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T37" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U37" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V37" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W37" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X37" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.75142891054807</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.49138865710684</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="C38" t="n">
-        <v>54.62267627294912</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="D38" t="n">
-        <v>26.7539638887914</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="E38" t="n">
-        <v>2.207202020825291</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="F38" t="n">
-        <v>2.207202020825291</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="G38" t="n">
-        <v>2.207202020825291</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="H38" t="n">
-        <v>2.207202020825291</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="I38" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J38" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L38" t="n">
-        <v>55.73185102583861</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M38" t="n">
-        <v>55.73185102583861</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N38" t="n">
         <v>55.73185102583861</v>
@@ -7193,31 +7193,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R38" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S38" t="n">
-        <v>110.3601010412646</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T38" t="n">
-        <v>110.3601010412646</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="U38" t="n">
-        <v>110.3601010412646</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="V38" t="n">
-        <v>110.3601010412646</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="W38" t="n">
-        <v>110.3601010412646</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="X38" t="n">
-        <v>110.3601010412646</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.3601010412646</v>
+        <v>42.14590365206637</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C39" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D39" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E39" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F39" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G39" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H39" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I39" t="n">
         <v>2.207202020825291</v>
@@ -7254,13 +7254,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L39" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M39" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N39" t="n">
         <v>28.41772601812563</v>
@@ -7275,28 +7275,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>57.94462678914073</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T39" t="n">
-        <v>57.94462678914073</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U39" t="n">
-        <v>57.94462678914073</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V39" t="n">
         <v>57.94462678914073</v>
       </c>
       <c r="W39" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X39" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y39" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.81333917329844</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C40" t="n">
-        <v>57.94462678914073</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D40" t="n">
-        <v>57.94462678914073</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E40" t="n">
+        <v>52.75142891054807</v>
+      </c>
+      <c r="F40" t="n">
+        <v>52.75142891054807</v>
+      </c>
+      <c r="G40" t="n">
+        <v>52.75142891054807</v>
+      </c>
+      <c r="H40" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="F40" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
         <v>2.207202020825291</v>
@@ -7357,25 +7357,25 @@
         <v>108.4888536788635</v>
       </c>
       <c r="S40" t="n">
-        <v>85.81333917329844</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T40" t="n">
-        <v>85.81333917329844</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U40" t="n">
-        <v>85.81333917329844</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V40" t="n">
-        <v>85.81333917329844</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W40" t="n">
-        <v>85.81333917329844</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="X40" t="n">
-        <v>85.81333917329844</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.81333917329844</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C41" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D41" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E41" t="n">
         <v>2.207202020825291</v>
@@ -7412,19 +7412,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K41" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L41" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M41" t="n">
-        <v>56.83545203625125</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N41" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O41" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P41" t="n">
         <v>110.3601010412646</v>
@@ -7442,19 +7442,19 @@
         <v>110.3601010412646</v>
       </c>
       <c r="U41" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V41" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W41" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X41" t="n">
-        <v>85.81333917329844</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y41" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C42" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D42" t="n">
-        <v>30.83004705776872</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E42" t="n">
-        <v>30.83004705776872</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F42" t="n">
-        <v>30.83004705776872</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G42" t="n">
-        <v>30.83004705776872</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H42" t="n">
-        <v>30.83004705776872</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I42" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J42" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K42" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L42" t="n">
         <v>29.52132702853827</v>
-      </c>
-      <c r="L42" t="n">
-        <v>56.83545203625125</v>
       </c>
       <c r="M42" t="n">
         <v>56.83545203625125</v>
@@ -7512,28 +7512,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R42" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="S42" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T42" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U42" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="V42" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="W42" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="S42" t="n">
+      <c r="X42" t="n">
+        <v>82.49138865710684</v>
+      </c>
+      <c r="Y42" t="n">
         <v>54.62267627294912</v>
-      </c>
-      <c r="T42" t="n">
-        <v>30.83004705776872</v>
-      </c>
-      <c r="U42" t="n">
-        <v>30.83004705776872</v>
-      </c>
-      <c r="V42" t="n">
-        <v>30.83004705776872</v>
-      </c>
-      <c r="W42" t="n">
-        <v>30.83004705776872</v>
-      </c>
-      <c r="X42" t="n">
-        <v>30.83004705776872</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>30.83004705776872</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L43" t="n">
-        <v>31.39257439093933</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M43" t="n">
-        <v>58.7066993986523</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N43" t="n">
-        <v>86.02082440636528</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O43" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P43" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.3601010412646</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R43" t="n">
-        <v>110.3601010412646</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S43" t="n">
-        <v>110.3601010412646</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T43" t="n">
-        <v>110.3601010412646</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U43" t="n">
-        <v>82.49138865710684</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V43" t="n">
-        <v>54.62267627294912</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W43" t="n">
-        <v>26.7539638887914</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N20" t="n">
         <v>257.0030888569071</v>
       </c>
       <c r="O20" t="n">
-        <v>256.5734881866366</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9483,10 +9483,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>165.029656544824</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M21" t="n">
-        <v>169.7240591823345</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N21" t="n">
         <v>158.9317373436494</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L23" t="n">
         <v>263.3564402303034</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N23" t="n">
-        <v>257.0030888569071</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O23" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L24" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>169.7240591823345</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9878,19 +9878,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N26" t="n">
         <v>257.0030888569071</v>
       </c>
       <c r="O26" t="n">
-        <v>257.6882366820029</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P26" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,19 +9957,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>165.029656544824</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O27" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>167.5717993463377</v>
@@ -10121,10 +10121,10 @@
         <v>257.9362584875889</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O29" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
         <v>231.2329957552695</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M30" t="n">
-        <v>169.7240591823345</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N30" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>160.4496841792801</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10352,7 +10352,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M32" t="n">
         <v>257.9362584875889</v>
@@ -10361,7 +10361,7 @@
         <v>257.0030888569071</v>
       </c>
       <c r="O32" t="n">
-        <v>257.6882366820029</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10431,7 +10431,7 @@
         <v>164.3167157393088</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -10440,7 +10440,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>161.5644326746464</v>
@@ -10586,16 +10586,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>263.3564402303034</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M35" t="n">
-        <v>256.8215099922226</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>166.1444050401903</v>
@@ -10677,13 +10677,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,16 +10823,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O38" t="n">
         <v>257.6882366820029</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -10911,7 +10911,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>170.1862697047606</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L41" t="n">
         <v>263.3564402303034</v>
@@ -11075,7 +11075,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>166.1444050401903</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -23972,10 +23972,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,10 +23984,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>315.1735078664807</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24017,22 +24017,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>184.7187753369589</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24063,7 +24063,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>87.93414998721002</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U21" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>145.5422199979494</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24169,28 +24169,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,22 +24209,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>330.3817473713965</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>387.7127122548189</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>345.4298064291826</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,22 +24282,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>133.3437862061145</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>75.85653990335669</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24348,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>157.3832208214279</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>190.9946280917787</v>
+        <v>196.1358939915854</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>196.1652945356643</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,13 +24485,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>125.5678236918632</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,7 +24500,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>148.4072047390293</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X27" t="n">
         <v>178.1829599431613</v>
       </c>
       <c r="Y27" t="n">
-        <v>181.3814015280179</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24643,10 +24643,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>122.2790926808335</v>
       </c>
       <c r="S29" t="n">
-        <v>184.7187753369589</v>
+        <v>194.7094745515037</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>145.1184737279996</v>
@@ -24774,10 +24774,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>65.09533860212863</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,13 +24807,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>147.3818768545514</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="31">
@@ -24853,16 +24853,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>162.047904972813</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>203.2608960285278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,13 +24917,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>340.9715975217211</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24959,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>248.9843472277074</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25044,13 +25044,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>208.4992929001388</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>117.8310227626151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>133.0017155667489</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25132,13 +25132,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>203.2608960285278</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>357.6290758229753</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25208,13 +25208,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W35" t="n">
-        <v>324.9396744681266</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>342.1410754181529</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,7 +25239,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25284,7 +25284,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>175.8634344455351</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,10 +25293,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>227.3936889116331</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X36" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>178.0926705169882</v>
@@ -25318,22 +25318,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I37" t="n">
-        <v>133.0017155667489</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>70.91042075616338</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>357.6290758229753</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25409,10 +25409,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>220.7345438840022</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25485,10 +25485,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>147.3818768545514</v>
@@ -25527,13 +25527,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25549,25 +25549,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>139.7784131469302</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>201.5678386764629</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25606,13 +25606,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,7 +25634,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25682,16 +25682,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X41" t="n">
-        <v>345.4298064291826</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y41" t="n">
         <v>358.6479133957374</v>
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>123.1437713153523</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25725,10 +25725,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>176.610025771793</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25828,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25843,7 +25843,7 @@
         <v>258.7290040961748</v>
       </c>
       <c r="V43" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>258.9329730762748</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357465.9437586831</v>
+        <v>357465.9437586834</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357465.9437586831</v>
+        <v>357465.9437586832</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>357465.9437586832</v>
+        <v>357465.9437586833</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357465.9437586833</v>
+        <v>357465.9437586832</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357465.9437586833</v>
+        <v>357465.9437586831</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357465.9437586833</v>
+        <v>357465.9437586832</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64504.44331886783</v>
+        <v>64504.44331886782</v>
       </c>
       <c r="C2" t="n">
         <v>64504.44331886782</v>
       </c>
       <c r="D2" t="n">
-        <v>64504.44331886783</v>
+        <v>64504.44331886782</v>
       </c>
       <c r="E2" t="n">
         <v>64504.44331886783</v>
@@ -26326,34 +26326,34 @@
         <v>64504.44331886783</v>
       </c>
       <c r="G2" t="n">
-        <v>64504.44331886784</v>
+        <v>64504.44331886782</v>
       </c>
       <c r="H2" t="n">
+        <v>69180.83107499292</v>
+      </c>
+      <c r="I2" t="n">
         <v>69180.83107499294</v>
-      </c>
-      <c r="I2" t="n">
-        <v>69180.83107499292</v>
       </c>
       <c r="J2" t="n">
         <v>69180.83107499294</v>
       </c>
       <c r="K2" t="n">
+        <v>69180.83107499291</v>
+      </c>
+      <c r="L2" t="n">
+        <v>69180.83107499295</v>
+      </c>
+      <c r="M2" t="n">
         <v>69180.83107499294</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>69180.83107499292</v>
+      </c>
+      <c r="O2" t="n">
         <v>69180.83107499294</v>
       </c>
-      <c r="M2" t="n">
-        <v>69180.83107499292</v>
-      </c>
-      <c r="N2" t="n">
-        <v>69180.83107499294</v>
-      </c>
-      <c r="O2" t="n">
-        <v>69180.83107499291</v>
-      </c>
       <c r="P2" t="n">
-        <v>64504.44331886782</v>
+        <v>64504.44331886783</v>
       </c>
     </row>
     <row r="3">
@@ -26454,7 +26454,7 @@
         <v>24752.61367588639</v>
       </c>
       <c r="O4" t="n">
-        <v>24752.61367588639</v>
+        <v>24752.61367588638</v>
       </c>
       <c r="P4" t="n">
         <v>23025.57528314837</v>
@@ -26525,7 +26525,7 @@
         <v>7851.268035719455</v>
       </c>
       <c r="D6" t="n">
-        <v>7851.268035719455</v>
+        <v>7851.26803571944</v>
       </c>
       <c r="E6" t="n">
         <v>41478.86803571945</v>
@@ -26534,31 +26534,31 @@
         <v>41478.86803571945</v>
       </c>
       <c r="G6" t="n">
-        <v>41478.86803571947</v>
+        <v>41478.86803571945</v>
       </c>
       <c r="H6" t="n">
-        <v>35306.70673781869</v>
+        <v>35306.70673781868</v>
       </c>
       <c r="I6" t="n">
-        <v>42750.74386327931</v>
+        <v>42750.74386327933</v>
       </c>
       <c r="J6" t="n">
         <v>42750.74386327933</v>
       </c>
       <c r="K6" t="n">
+        <v>42750.7438632793</v>
+      </c>
+      <c r="L6" t="n">
+        <v>42750.74386327934</v>
+      </c>
+      <c r="M6" t="n">
         <v>42750.74386327933</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
+        <v>42750.74386327931</v>
+      </c>
+      <c r="O6" t="n">
         <v>42750.74386327933</v>
-      </c>
-      <c r="M6" t="n">
-        <v>42750.74386327931</v>
-      </c>
-      <c r="N6" t="n">
-        <v>42750.74386327933</v>
-      </c>
-      <c r="O6" t="n">
-        <v>42750.7438632793</v>
       </c>
       <c r="P6" t="n">
         <v>41478.86803571945</v>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N20" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O20" t="n">
-        <v>26.47527676494983</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="M21" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="M21" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="N21" t="n">
         <v>27.59002526031614</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L23" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N23" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O23" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="M24" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36598,19 +36598,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N26" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O26" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>27.59002526031614</v>
@@ -36841,10 +36841,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O29" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M30" t="n">
+        <v>26.47527676494983</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N30" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="O30" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="P30" t="n">
-        <v>26.47527676494983</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M32" t="n">
         <v>27.59002526031614</v>
@@ -37081,7 +37081,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="O32" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>26.47527676494984</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>27.59002526031614</v>
@@ -37306,16 +37306,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="M35" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="M35" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M36" t="n">
-        <v>26.47527676494983</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="N38" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="L38" t="n">
-        <v>26.47527676494984</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>27.59002526031614</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>27.59002526031614</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L41" t="n">
         <v>27.59002526031614</v>
@@ -37795,7 +37795,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>255686.8708956562</v>
+        <v>268903.4549762341</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5095622.684065033</v>
+        <v>4968231.017992426</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22414251.77131043</v>
+        <v>22289395.19939268</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3987555.939167324</v>
+        <v>4041173.505479912</v>
       </c>
     </row>
     <row r="11">
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2281,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>22.44875936050941</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X23" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G24" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>9.977552361264271</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.4487593605094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I26" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="X27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S29" t="n">
-        <v>14.31059503474164</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="31">
@@ -2962,19 +2962,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1792675346265591</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,19 +3071,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.36130568012912</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V33" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>22.4487593605094</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V35" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X35" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="37">
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J37" t="n">
-        <v>22.4487593605094</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="40">
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>22.44875936050941</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I40" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D42" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X43" t="n">
-        <v>22.44875936050941</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C20" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D20" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E20" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F20" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G20" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H20" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L20" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M20" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N20" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O20" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U20" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V20" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W20" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X20" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y20" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C21" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D21" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E21" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F21" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G21" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K21" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L21" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M21" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N21" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O21" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P21" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R21" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S21" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T21" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U21" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V21" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W21" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X21" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y21" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C22" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D22" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E22" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F22" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G22" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H22" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I22" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J22" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K22" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L22" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M22" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N22" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O22" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P22" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R22" t="n">
-        <v>52.75142891054807</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S22" t="n">
-        <v>24.88271652639035</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T22" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U22" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V22" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W22" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X22" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C23" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D23" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E23" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F23" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G23" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H23" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K23" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L23" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M23" t="n">
-        <v>84.14957704396423</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N23" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O23" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V23" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W23" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X23" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y23" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C24" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D24" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E24" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F24" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G24" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K24" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L24" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M24" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N24" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O24" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R24" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S24" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T24" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U24" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V24" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W24" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X24" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y24" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.81587415154178</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="C25" t="n">
-        <v>31.94716176738407</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="D25" t="n">
-        <v>31.94716176738407</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="E25" t="n">
-        <v>31.94716176738407</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="F25" t="n">
-        <v>31.94716176738407</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="G25" t="n">
-        <v>4.078449383226349</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="H25" t="n">
-        <v>4.078449383226349</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="I25" t="n">
-        <v>4.078449383226349</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J25" t="n">
-        <v>4.078449383226349</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K25" t="n">
-        <v>4.078449383226349</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L25" t="n">
-        <v>31.39257439093933</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M25" t="n">
-        <v>58.7066993986523</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N25" t="n">
-        <v>86.02082440636528</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O25" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P25" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R25" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S25" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T25" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U25" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V25" t="n">
-        <v>110.3601010412646</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="W25" t="n">
-        <v>110.3601010412646</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="X25" t="n">
-        <v>110.3601010412646</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.68458653569951</v>
+        <v>28.30602982030574</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>44.53106090472204</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C26" t="n">
-        <v>16.66234852056432</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D26" t="n">
-        <v>16.66234852056432</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E26" t="n">
-        <v>16.66234852056432</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F26" t="n">
-        <v>16.66234852056432</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G26" t="n">
-        <v>16.66234852056432</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H26" t="n">
-        <v>16.66234852056432</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L26" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M26" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N26" t="n">
-        <v>84.14957704396423</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O26" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q26" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R26" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S26" t="n">
-        <v>44.53106090472204</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T26" t="n">
-        <v>44.53106090472204</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U26" t="n">
-        <v>44.53106090472204</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V26" t="n">
-        <v>44.53106090472204</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W26" t="n">
-        <v>44.53106090472204</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X26" t="n">
-        <v>44.53106090472204</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y26" t="n">
-        <v>44.53106090472204</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K27" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L27" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M27" t="n">
-        <v>56.83545203625125</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N27" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O27" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P27" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W27" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X27" t="n">
-        <v>54.62267627294912</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y27" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C28" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D28" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E28" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F28" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L28" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M28" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N28" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S28" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T28" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U28" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V28" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W28" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X28" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.75142891054807</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C29" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D29" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E29" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F29" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G29" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K29" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L29" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M29" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N29" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O29" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P29" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q29" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R29" t="n">
-        <v>72.39977328887976</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S29" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T29" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U29" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V29" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W29" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X29" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y29" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C30" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D30" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E30" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F30" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G30" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H30" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K30" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L30" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M30" t="n">
-        <v>83.04597603355158</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N30" t="n">
-        <v>83.04597603355158</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O30" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P30" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R30" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S30" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T30" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U30" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V30" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W30" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X30" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y30" t="n">
-        <v>82.49138865710684</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="D31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="E31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="F31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="G31" t="n">
-        <v>80.62014129470579</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H31" t="n">
-        <v>80.43906297690118</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I31" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J31" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L31" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M31" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N31" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14.27719126790864</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C32" t="n">
-        <v>14.27719126790864</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="D32" t="n">
-        <v>14.27719126790864</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="E32" t="n">
-        <v>14.27719126790864</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="F32" t="n">
-        <v>14.27719126790864</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G32" t="n">
-        <v>14.27719126790864</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H32" t="n">
-        <v>14.27719126790864</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I32" t="n">
-        <v>14.27719126790864</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J32" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K32" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L32" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M32" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N32" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R32" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S32" t="n">
-        <v>44.53106090472204</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T32" t="n">
-        <v>16.66234852056432</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U32" t="n">
-        <v>14.27719126790864</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V32" t="n">
-        <v>14.27719126790864</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W32" t="n">
-        <v>14.27719126790864</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X32" t="n">
-        <v>14.27719126790864</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y32" t="n">
-        <v>14.27719126790864</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C33" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D33" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E33" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K33" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L33" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M33" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N33" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O33" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P33" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S33" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T33" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U33" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V33" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W33" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X33" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y33" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.94716176738407</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C34" t="n">
-        <v>4.078449383226349</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="D34" t="n">
-        <v>4.078449383226349</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="E34" t="n">
-        <v>4.078449383226349</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="F34" t="n">
-        <v>4.078449383226349</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="G34" t="n">
-        <v>4.078449383226349</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="H34" t="n">
-        <v>4.078449383226349</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="I34" t="n">
-        <v>4.078449383226349</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J34" t="n">
-        <v>4.078449383226349</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K34" t="n">
-        <v>4.078449383226349</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L34" t="n">
-        <v>31.39257439093933</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M34" t="n">
-        <v>58.7066993986523</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N34" t="n">
-        <v>86.02082440636528</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O34" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P34" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R34" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S34" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T34" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U34" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V34" t="n">
-        <v>82.49138865710684</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W34" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X34" t="n">
-        <v>31.94716176738407</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.94716176738407</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C35" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D35" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K35" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L35" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M35" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N35" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O35" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U35" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V35" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W35" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X35" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y35" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K36" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L36" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M36" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N36" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O36" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R36" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S36" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T36" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U36" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V36" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W36" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X36" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y36" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="C37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="D37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="E37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="F37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="G37" t="n">
-        <v>82.49138865710684</v>
+        <v>108.2734580260443</v>
       </c>
       <c r="H37" t="n">
-        <v>54.62267627294912</v>
+        <v>68.28974392317502</v>
       </c>
       <c r="I37" t="n">
-        <v>26.7539638887914</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J37" t="n">
-        <v>4.078449383226349</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K37" t="n">
-        <v>4.078449383226349</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L37" t="n">
-        <v>31.39257439093933</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M37" t="n">
-        <v>58.7066993986523</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N37" t="n">
-        <v>86.02082440636528</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O37" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P37" t="n">
-        <v>110.3601010412646</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="R37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="S37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="T37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="U37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="V37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="W37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="X37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2571721289136</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42.14590365206637</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C38" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D38" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E38" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F38" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G38" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H38" t="n">
-        <v>42.14590365206637</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I38" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K38" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L38" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M38" t="n">
-        <v>28.41772601812563</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N38" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O38" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q38" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R38" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S38" t="n">
-        <v>44.53106090472204</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T38" t="n">
-        <v>42.14590365206637</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U38" t="n">
-        <v>42.14590365206637</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V38" t="n">
-        <v>42.14590365206637</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W38" t="n">
-        <v>42.14590365206637</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X38" t="n">
-        <v>42.14590365206637</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y38" t="n">
-        <v>42.14590365206637</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K39" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L39" t="n">
-        <v>28.41772601812563</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M39" t="n">
-        <v>28.41772601812563</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N39" t="n">
-        <v>28.41772601812563</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O39" t="n">
-        <v>55.73185102583861</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P39" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S39" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T39" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U39" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V39" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W39" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X39" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C40" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D40" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E40" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F40" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G40" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H40" t="n">
-        <v>30.07591440498301</v>
+        <v>13.245045875396</v>
       </c>
       <c r="I40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L40" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M40" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N40" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V40" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W40" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X40" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K41" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L41" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M41" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N41" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O41" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U41" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V41" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W41" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X41" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C42" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L42" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M42" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N42" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O42" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P42" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W42" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X42" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y42" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L43" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M43" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N43" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T43" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U43" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V43" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W43" t="n">
-        <v>24.88271652639035</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="44">
@@ -9404,19 +9404,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8215099922226</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N20" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P20" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L21" t="n">
-        <v>166.1444050401903</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M21" t="n">
-        <v>168.6093106869682</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>158.9317373436494</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O21" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9565,10 +9565,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L23" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M23" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>255.8883403615407</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O23" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>168.6093106869682</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O24" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P24" t="n">
-        <v>161.5644326746464</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9802,10 +9802,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9878,19 +9878,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N26" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O26" t="n">
-        <v>256.5734881866366</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L27" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M27" t="n">
-        <v>169.7240591823345</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N27" t="n">
-        <v>157.8169888482831</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -9972,7 +9972,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10039,10 +10039,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L29" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M29" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N29" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>166.1444050401903</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M30" t="n">
-        <v>168.6093106869681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P30" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10276,10 +10276,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10352,16 +10352,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M32" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N32" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O32" t="n">
-        <v>256.5734881866366</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>164.3167157393088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>166.1444050401903</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10513,10 +10513,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10586,22 +10586,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L35" t="n">
-        <v>262.2416917349371</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M35" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P35" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L36" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M36" t="n">
-        <v>168.6093106869681</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P36" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10750,10 +10750,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10823,22 +10823,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L38" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>256.8215099922226</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N38" t="n">
-        <v>257.0030888569071</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O38" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>164.3167157393088</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O39" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10987,10 +10987,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L41" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M41" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N41" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11142,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M42" t="n">
-        <v>169.7240591823345</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O42" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11224,10 +11224,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -23984,10 +23984,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>315.1735078664807</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>182.8858643100898</v>
+        <v>175.6104107424167</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24023,13 +24023,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>223.7556276475204</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V20" t="n">
-        <v>300.1622332098187</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24063,7 +24063,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>87.93414998721002</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.56780889232699</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0931458435217</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T21" t="n">
-        <v>172.5747034345055</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24169,16 +24169,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>205.4968300677721</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7321030277729</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>182.8858643100898</v>
+        <v>175.6104107424167</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24263,13 +24263,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X23" t="n">
-        <v>345.4298064291826</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,13 +24294,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G24" t="n">
-        <v>109.7534919028945</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>77.36996540850728</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>75.85653990335669</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24348,7 +24348,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.2419549216212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24412,16 +24412,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>242.1600909625637</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.1358939915854</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>304.609323287778</v>
       </c>
       <c r="I26" t="n">
-        <v>196.1652945356643</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,13 +24485,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>181.4300443259292</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>148.4072047390293</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>224.1049579006035</v>
+        <v>216.8295043329304</v>
       </c>
       <c r="X27" t="n">
-        <v>178.1829599431613</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.2419549216212</v>
+        <v>169.854427820673</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>145.5422199979494</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24649,10 +24649,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T28" t="n">
-        <v>200.3555641679654</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.9946280917787</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>337.6828665106914</v>
+        <v>330.4074129430184</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>311.884776855451</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>122.2790926808335</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7094745515037</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C30" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24774,10 +24774,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>65.09533860212863</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24822,10 +24822,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="31">
@@ -24850,19 +24850,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H31" t="n">
-        <v>162.047904972813</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I31" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J31" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>196.4265727766561</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24917,16 +24917,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>342.3567022976309</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,19 +24959,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>248.9843472277074</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138.9431583895512</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25044,16 +25044,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V33" t="n">
-        <v>208.4992929001388</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>139.6567958383117</v>
+        <v>157.2692687373636</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25093,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25126,19 +25126,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>224.5476180635119</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W34" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>203.2608960285278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25160,7 +25160,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>357.6290758229753</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25208,16 +25208,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>223.7556276475204</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V35" t="n">
-        <v>300.1622332098187</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X35" t="n">
-        <v>342.1410754181529</v>
+        <v>334.8656218504798</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9431583895512</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>175.8634344455351</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="37">
@@ -25324,16 +25324,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>140.4009540981426</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H37" t="n">
-        <v>134.6371472471234</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I37" t="n">
-        <v>127.8604496669421</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J37" t="n">
-        <v>70.91042075616338</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25351,10 +25351,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>78.90593162553662</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>330.4074129430184</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,10 +25409,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>182.8858643100898</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>220.7345438840022</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25518,7 +25518,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>147.3818768545514</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>205.2105618891091</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W39" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="40">
@@ -25564,10 +25564,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>139.7784131469302</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I40" t="n">
-        <v>127.8604496669421</v>
+        <v>145.472922565994</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25606,13 +25606,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>224.5476180635119</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>198.119630128721</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>227.04435865855</v>
+        <v>216.4801740798473</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>321.6509434570969</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X41" t="n">
-        <v>342.1410754181529</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y41" t="n">
-        <v>358.6479133957374</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9431583895512</v>
+        <v>131.6677048218782</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D42" t="n">
-        <v>123.1437713153523</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>178.0926705169882</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="43">
@@ -25828,7 +25828,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.57201799137825</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,16 +25840,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>258.7290040961748</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>258.9329730762748</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X43" t="n">
-        <v>203.2608960285278</v>
+        <v>215.7321030277729</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357465.9437586834</v>
+        <v>367155.0035530832</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357465.9437586832</v>
+        <v>367155.0035530832</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357465.9437586833</v>
+        <v>367155.0035530832</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>357465.9437586833</v>
+        <v>367155.0035530831</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357465.9437586832</v>
+        <v>367155.0035530834</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357465.9437586833</v>
+        <v>367155.0035530831</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357465.9437586831</v>
+        <v>367155.0035530833</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357465.9437586832</v>
+        <v>367155.0035530832</v>
       </c>
     </row>
     <row r="16">
@@ -26317,40 +26317,40 @@
         <v>64504.44331886782</v>
       </c>
       <c r="D2" t="n">
+        <v>64504.44331886783</v>
+      </c>
+      <c r="E2" t="n">
         <v>64504.44331886782</v>
-      </c>
-      <c r="E2" t="n">
-        <v>64504.44331886783</v>
       </c>
       <c r="F2" t="n">
         <v>64504.44331886783</v>
       </c>
       <c r="G2" t="n">
-        <v>64504.44331886782</v>
+        <v>64504.44331886783</v>
       </c>
       <c r="H2" t="n">
-        <v>69180.83107499292</v>
+        <v>71053.6796537592</v>
       </c>
       <c r="I2" t="n">
-        <v>69180.83107499294</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="J2" t="n">
-        <v>69180.83107499294</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="K2" t="n">
-        <v>69180.83107499291</v>
+        <v>71053.6796537592</v>
       </c>
       <c r="L2" t="n">
-        <v>69180.83107499295</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="M2" t="n">
-        <v>69180.83107499294</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="N2" t="n">
-        <v>69180.83107499292</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="O2" t="n">
-        <v>69180.83107499294</v>
+        <v>71053.6796537592</v>
       </c>
       <c r="P2" t="n">
         <v>64504.44331886783</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7444.037125460638</v>
+        <v>10680.08625919725</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23025.57528314837</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="C4" t="n">
-        <v>23025.57528314837</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="D4" t="n">
-        <v>23025.57528314837</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="E4" t="n">
-        <v>23025.57528314837</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="F4" t="n">
-        <v>23025.57528314837</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="G4" t="n">
-        <v>23025.57528314837</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="H4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="I4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="J4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="K4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="L4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="M4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="N4" t="n">
-        <v>24752.61367588639</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="O4" t="n">
-        <v>24752.61367588638</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="P4" t="n">
-        <v>23025.57528314837</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="I5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="J5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="K5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="L5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="M5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="N5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="O5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7851.268035719455</v>
+        <v>9375.36221257854</v>
       </c>
       <c r="C6" t="n">
-        <v>7851.268035719455</v>
+        <v>9375.362212578533</v>
       </c>
       <c r="D6" t="n">
-        <v>7851.26803571944</v>
+        <v>9375.362212578548</v>
       </c>
       <c r="E6" t="n">
-        <v>41478.86803571945</v>
+        <v>43002.96221257854</v>
       </c>
       <c r="F6" t="n">
-        <v>41478.86803571945</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="G6" t="n">
-        <v>41478.86803571945</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="H6" t="n">
-        <v>35306.70673781868</v>
+        <v>34204.5973868975</v>
       </c>
       <c r="I6" t="n">
-        <v>42750.74386327933</v>
+        <v>44884.68364609472</v>
       </c>
       <c r="J6" t="n">
-        <v>42750.74386327933</v>
+        <v>44884.68364609472</v>
       </c>
       <c r="K6" t="n">
-        <v>42750.7438632793</v>
+        <v>44884.68364609474</v>
       </c>
       <c r="L6" t="n">
-        <v>42750.74386327934</v>
+        <v>44884.68364609473</v>
       </c>
       <c r="M6" t="n">
-        <v>42750.74386327933</v>
+        <v>44884.68364609472</v>
       </c>
       <c r="N6" t="n">
-        <v>42750.74386327931</v>
+        <v>44884.68364609473</v>
       </c>
       <c r="O6" t="n">
-        <v>42750.74386327933</v>
+        <v>44884.68364609474</v>
       </c>
       <c r="P6" t="n">
-        <v>41478.86803571945</v>
+        <v>43002.96221257855</v>
       </c>
     </row>
   </sheetData>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -36124,19 +36124,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M20" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L21" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M21" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L23" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O24" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P24" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36598,19 +36598,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O26" t="n">
-        <v>26.47527676494983</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N27" t="n">
-        <v>26.47527676494983</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L29" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M29" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N29" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M30" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37072,16 +37072,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O32" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L35" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P35" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M36" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N38" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L41" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N41" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M42" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O42" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268903.4549762341</v>
+        <v>268208.8365204979</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4968231.017992426</v>
+        <v>5095395.866202923</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22289395.19939268</v>
+        <v>22414029.46712379</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4041173.505479912</v>
+        <v>3983240.088463745</v>
       </c>
     </row>
     <row r="11">
@@ -1847,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1941,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.9883504387977626</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>39.58387696184059</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="T21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2278,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>9.977552361264268</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Y22" t="n">
-        <v>39.58387696184059</v>
+        <v>1.969734065685309</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2406,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>9.977552361264271</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H26" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="28">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2755,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C29" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X30" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2992,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="S31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3029,28 +3031,28 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>22.91618947337665</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,22 +3198,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.1792675346265591</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3272,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="W36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="37">
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3463,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="40">
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H40" t="n">
-        <v>39.58387696184059</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="I40" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U41" t="n">
-        <v>34.86547882798917</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.86547882798917</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>39.58387696184059</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X43" t="n">
-        <v>9.977552361264268</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4062,22 +4064,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>6.007688900340192</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.38436553875449</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="C20" t="n">
-        <v>38.38436553875449</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="D20" t="n">
-        <v>38.38436553875449</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E20" t="n">
-        <v>38.38436553875449</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F20" t="n">
-        <v>38.38436553875449</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G20" t="n">
-        <v>38.38436553875449</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H20" t="n">
-        <v>38.38436553875449</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K20" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L20" t="n">
-        <v>42.35474834916943</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="M20" t="n">
-        <v>79.95943146291799</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="N20" t="n">
-        <v>79.95943146291799</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="O20" t="n">
-        <v>119.1474696551402</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="P20" t="n">
-        <v>158.3355078473624</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q20" t="n">
-        <v>158.3355078473624</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="R20" t="n">
-        <v>158.3355078473624</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="S20" t="n">
-        <v>158.3355078473624</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="T20" t="n">
-        <v>158.3355078473624</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="U20" t="n">
-        <v>118.3517937444931</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="V20" t="n">
-        <v>78.36807964162378</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="W20" t="n">
-        <v>38.38436553875449</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="X20" t="n">
-        <v>38.38436553875449</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.38436553875449</v>
+        <v>4.136839464013024</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K21" t="n">
-        <v>42.35474834916943</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L21" t="n">
-        <v>79.95943146291799</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="M21" t="n">
-        <v>79.95943146291799</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N21" t="n">
-        <v>119.1474696551402</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="O21" t="n">
-        <v>119.1474696551402</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="P21" t="n">
-        <v>119.1474696551402</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.3355078473624</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3517937444931</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S21" t="n">
-        <v>78.36807964162378</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="T21" t="n">
-        <v>38.38436553875449</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="U21" t="n">
-        <v>3.166710156947247</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="V21" t="n">
-        <v>3.166710156947247</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="W21" t="n">
-        <v>3.166710156947247</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="X21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="C22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="D22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="E22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="F22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K22" t="n">
-        <v>3.166710156947247</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L22" t="n">
-        <v>30.48083516466022</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="M22" t="n">
-        <v>69.6688733568824</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="N22" t="n">
-        <v>108.8569115491046</v>
+        <v>6.007688900340192</v>
       </c>
       <c r="O22" t="n">
-        <v>133.1961881840039</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P22" t="n">
-        <v>133.1961881840039</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.1961881840039</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="R22" t="n">
-        <v>133.1961881840039</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="S22" t="n">
-        <v>133.1961881840039</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="T22" t="n">
-        <v>93.21247408113457</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="U22" t="n">
-        <v>93.21247408113457</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="V22" t="n">
-        <v>93.21247408113457</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="W22" t="n">
-        <v>93.21247408113457</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="X22" t="n">
-        <v>83.13413836268582</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.15042425981653</v>
+        <v>2.147209094633924</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L23" t="n">
-        <v>79.95943146291799</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M23" t="n">
-        <v>79.95943146291799</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N23" t="n">
-        <v>119.1474696551402</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O23" t="n">
-        <v>119.1474696551402</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S23" t="n">
-        <v>158.3355078473624</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T23" t="n">
-        <v>158.3355078473624</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U23" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V23" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W23" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C24" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D24" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E24" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F24" t="n">
-        <v>78.36807964162378</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G24" t="n">
-        <v>38.38436553875449</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L24" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M24" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N24" t="n">
-        <v>81.54278654139161</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O24" t="n">
-        <v>120.7308247336138</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P24" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S24" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T24" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U24" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V24" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W24" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X24" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y24" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.30602982030574</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C25" t="n">
-        <v>28.30602982030574</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D25" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K25" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L25" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M25" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N25" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O25" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q25" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R25" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S25" t="n">
-        <v>118.3517937444931</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T25" t="n">
-        <v>78.36807964162378</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U25" t="n">
-        <v>38.38436553875449</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V25" t="n">
-        <v>28.30602982030574</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W25" t="n">
-        <v>28.30602982030574</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X25" t="n">
-        <v>28.30602982030574</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.30602982030574</v>
+        <v>80.62014129470579</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C26" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D26" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E26" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F26" t="n">
-        <v>78.36807964162378</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G26" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>3.166710156947247</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L26" t="n">
-        <v>3.166710156947247</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M26" t="n">
-        <v>42.35474834916943</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N26" t="n">
-        <v>81.54278654139161</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O26" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R26" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S26" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T26" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U26" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V26" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W26" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X26" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y26" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L27" t="n">
-        <v>81.54278654139161</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M27" t="n">
-        <v>120.7308247336138</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N27" t="n">
-        <v>158.3355078473624</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O27" t="n">
-        <v>158.3355078473624</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P27" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W27" t="n">
-        <v>123.1178524655551</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X27" t="n">
-        <v>83.13413836268582</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y27" t="n">
-        <v>43.15042425981653</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C28" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D28" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E28" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L28" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M28" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N28" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.1961881840039</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="R28" t="n">
-        <v>133.1961881840039</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S28" t="n">
-        <v>93.21247408113457</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T28" t="n">
-        <v>53.22875997826529</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U28" t="n">
-        <v>53.22875997826529</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V28" t="n">
-        <v>53.22875997826529</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W28" t="n">
-        <v>53.22875997826529</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X28" t="n">
-        <v>53.22875997826529</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.245045875396</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C29" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D29" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E29" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F29" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G29" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L29" t="n">
-        <v>81.54278654139161</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M29" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N29" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O29" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S29" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T29" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U29" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V29" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W29" t="n">
-        <v>78.36807964162378</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X29" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.36807964162378</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L30" t="n">
-        <v>40.77139327069581</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M30" t="n">
-        <v>40.77139327069581</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N30" t="n">
-        <v>40.77139327069581</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O30" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P30" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T30" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U30" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V30" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W30" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X30" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y30" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.1961881840039</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R31" t="n">
-        <v>133.1961881840039</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="S31" t="n">
-        <v>93.21247408113457</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="T31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="U31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C32" t="n">
-        <v>135.1878417126385</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D32" t="n">
-        <v>95.20412760976917</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E32" t="n">
-        <v>55.22041350689989</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F32" t="n">
-        <v>15.2366994040306</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G32" t="n">
-        <v>15.2366994040306</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H32" t="n">
-        <v>15.2366994040306</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I32" t="n">
-        <v>15.2366994040306</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L32" t="n">
-        <v>40.77139327069581</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M32" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N32" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O32" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S32" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T32" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U32" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V32" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W32" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X32" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y32" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>3.166710156947247</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L33" t="n">
-        <v>40.77139327069581</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M33" t="n">
-        <v>40.77139327069581</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N33" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O33" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P33" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T33" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U33" t="n">
-        <v>78.36807964162378</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V33" t="n">
-        <v>38.38436553875449</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W33" t="n">
-        <v>38.38436553875449</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X33" t="n">
-        <v>38.38436553875449</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.38436553875449</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.36807964162378</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="C34" t="n">
-        <v>68.28974392317502</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="D34" t="n">
-        <v>68.28974392317502</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="E34" t="n">
-        <v>68.28974392317502</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="F34" t="n">
-        <v>68.28974392317502</v>
+        <v>108.3077753610589</v>
       </c>
       <c r="G34" t="n">
-        <v>68.28974392317502</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="H34" t="n">
-        <v>68.28974392317502</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="I34" t="n">
-        <v>28.30602982030574</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="J34" t="n">
-        <v>28.30602982030574</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K34" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L34" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M34" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N34" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S34" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T34" t="n">
-        <v>118.3517937444931</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U34" t="n">
-        <v>118.3517937444931</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V34" t="n">
-        <v>78.36807964162378</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W34" t="n">
-        <v>78.36807964162378</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X34" t="n">
-        <v>78.36807964162378</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.36807964162378</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C35" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D35" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E35" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F35" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L35" t="n">
-        <v>79.95943146291799</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M35" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N35" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O35" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U35" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V35" t="n">
-        <v>78.36807964162378</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W35" t="n">
-        <v>38.38436553875449</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X35" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L36" t="n">
-        <v>81.54278654139161</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M36" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N36" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O36" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P36" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S36" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T36" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U36" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V36" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W36" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X36" t="n">
-        <v>78.36807964162378</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y36" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="C37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="D37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="E37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="F37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2734580260443</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="H37" t="n">
-        <v>68.28974392317502</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="I37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="J37" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L37" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M37" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N37" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O37" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>155.5865778119012</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.2571721289136</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.36807964162378</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C38" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D38" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E38" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F38" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G38" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H38" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L38" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M38" t="n">
-        <v>81.54278654139161</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N38" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O38" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R38" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S38" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T38" t="n">
-        <v>158.3355078473624</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U38" t="n">
-        <v>158.3355078473624</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V38" t="n">
-        <v>158.3355078473624</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W38" t="n">
-        <v>158.3355078473624</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X38" t="n">
-        <v>158.3355078473624</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y38" t="n">
-        <v>118.3517937444931</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L39" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M39" t="n">
-        <v>120.7308247336138</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N39" t="n">
-        <v>158.3355078473624</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U39" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V39" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W39" t="n">
-        <v>78.36807964162378</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X39" t="n">
-        <v>78.36807964162378</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y39" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.22875997826529</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C40" t="n">
-        <v>53.22875997826529</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D40" t="n">
-        <v>53.22875997826529</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E40" t="n">
-        <v>53.22875997826529</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="F40" t="n">
-        <v>53.22875997826529</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="G40" t="n">
-        <v>53.22875997826529</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="H40" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L40" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M40" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N40" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O40" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P40" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R40" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S40" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T40" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U40" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V40" t="n">
-        <v>93.21247408113457</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W40" t="n">
-        <v>93.21247408113457</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="X40" t="n">
-        <v>53.22875997826529</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.22875997826529</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.166710156947247</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C41" t="n">
-        <v>3.166710156947247</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D41" t="n">
-        <v>3.166710156947247</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E41" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K41" t="n">
-        <v>42.35474834916943</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L41" t="n">
-        <v>79.95943146291799</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M41" t="n">
-        <v>119.1474696551402</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N41" t="n">
-        <v>119.1474696551402</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O41" t="n">
-        <v>119.1474696551402</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T41" t="n">
-        <v>158.3355078473624</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U41" t="n">
-        <v>123.1178524655551</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V41" t="n">
-        <v>123.1178524655551</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W41" t="n">
-        <v>83.13413836268582</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X41" t="n">
-        <v>43.15042425981653</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.166710156947247</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L42" t="n">
-        <v>42.35474834916943</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M42" t="n">
-        <v>79.95943146291799</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N42" t="n">
-        <v>119.1474696551402</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O42" t="n">
-        <v>119.1474696551402</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="P42" t="n">
-        <v>119.1474696551402</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W42" t="n">
-        <v>118.3517937444931</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X42" t="n">
-        <v>118.3517937444931</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y42" t="n">
-        <v>78.36807964162378</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L43" t="n">
-        <v>30.48083516466022</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M43" t="n">
-        <v>69.6688733568824</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N43" t="n">
-        <v>108.8569115491046</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.21247408113457</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R43" t="n">
-        <v>93.21247408113457</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S43" t="n">
-        <v>93.21247408113457</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T43" t="n">
-        <v>93.21247408113457</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U43" t="n">
-        <v>53.22875997826529</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V43" t="n">
-        <v>53.22875997826529</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W43" t="n">
-        <v>13.245045875396</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X43" t="n">
-        <v>3.166710156947247</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.166710156947247</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
   </sheetData>
@@ -9170,16 +9172,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>232.2363820781829</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>231.3827976622762</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>232.067945487372</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>233.2027298209549</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>139.8111730400443</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>140.5241138455595</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>144.1037679877036</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>133.2318609342435</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9325,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>136.7748251321484</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>129.6552785309185</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>140.4262725175281</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9404,19 +9406,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>268.3307616249986</v>
+        <v>232.2363820781829</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>231.3827976622762</v>
       </c>
       <c r="O20" t="n">
-        <v>269.6820883835273</v>
+        <v>232.067945487372</v>
       </c>
       <c r="P20" t="n">
-        <v>270.8168727171101</v>
+        <v>233.2027298209549</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>177.4253159361996</v>
+        <v>139.8111730400443</v>
       </c>
       <c r="L21" t="n">
-        <v>176.5389081776</v>
+        <v>140.4445286307843</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>135.9441414800156</v>
       </c>
       <c r="Q21" t="n">
-        <v>179.5656510478621</v>
+        <v>141.9515081517068</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,16 +9564,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>136.8544103469236</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N22" t="n">
-        <v>167.2694214270738</v>
+        <v>129.6552785309185</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>140.3466873027529</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9638,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N23" t="n">
-        <v>268.9969405584315</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P23" t="n">
-        <v>270.8168727171101</v>
+        <v>257.7082725202193</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -9726,16 +9728,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>170.9255890451739</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O24" t="n">
-        <v>182.180121406285</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P24" t="n">
-        <v>171.9589358120561</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9802,10 +9804,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9875,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L26" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>268.9969405584315</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O26" t="n">
-        <v>268.0827398194126</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P26" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>169.3262404810591</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10039,10 +10041,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10112,13 +10114,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L29" t="n">
-        <v>275.3502919318278</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M29" t="n">
-        <v>268.3307616249986</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
@@ -10127,7 +10129,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10194,7 +10196,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>176.5389081776</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -10203,13 +10205,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>182.180121406285</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P30" t="n">
-        <v>173.5582843761708</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10276,10 +10278,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10352,19 +10354,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>273.750943367713</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M32" t="n">
-        <v>269.9301101891133</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N32" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>269.6820883835273</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L33" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N33" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P33" t="n">
-        <v>173.5582843761708</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q33" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10513,10 +10515,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10586,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>273.750943367713</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O35" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>177.4253159361996</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L36" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M36" t="n">
-        <v>180.1185623197441</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10750,10 +10752,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10823,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>269.9301101891133</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N38" t="n">
-        <v>267.3975919943167</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P38" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M39" t="n">
-        <v>181.7179108838589</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N39" t="n">
-        <v>169.3262404810591</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -10987,10 +10989,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11060,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>259.6737280068211</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L41" t="n">
-        <v>273.750943367713</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M41" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P41" t="n">
-        <v>270.8168727171101</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>178.1382567417148</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M42" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q42" t="n">
-        <v>179.5656510478621</v>
+        <v>164.5669020000612</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,13 +11223,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N43" t="n">
-        <v>167.2694214270738</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11297,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O44" t="n">
         <v>230.0982114216867</v>
@@ -11379,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -11391,10 +11393,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23735,10 +23737,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>352.7133075549976</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>379.9606360065765</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>8.255757449489185</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>367.7613666127837</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23829,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>88.40828241261731</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>98.18810008695783</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>169.7134370381525</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>198.1949946291363</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>84.19230918600908</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>175.3236573114842</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>223.9747136239815</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>216.6149192864095</v>
       </c>
     </row>
     <row r="20">
@@ -23969,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>363.3031577053222</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>352.7133075549976</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23987,7 +23989,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>175.6104107424167</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>8.255757449489185</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,16 +24025,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>367.7613666127837</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>132.0992941419972</v>
+        <v>169.9482293387822</v>
       </c>
       <c r="T21" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>249.7252490952343</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>203.8032511377922</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>203.712961711619</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>143.4513139572459</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24166,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0.9864989700508922</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24178,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>215.7321030277729</v>
+        <v>223.7399213233518</v>
       </c>
       <c r="Y22" t="n">
-        <v>179.0007763902542</v>
+        <v>216.6149192864095</v>
       </c>
     </row>
     <row r="23">
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>175.6104107424167</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,25 +24253,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V23" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24294,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>77.36996540850728</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24339,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>181.471690954191</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>123.9852032860598</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,16 +24414,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>242.1600909625637</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="26">
@@ -24452,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>375.7188605532945</v>
+        <v>391.0014432658486</v>
       </c>
       <c r="H26" t="n">
-        <v>304.609323287778</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24488,16 +24490,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S26" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C27" t="n">
-        <v>133.1246220264752</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>216.8295043329304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>166.1891082416369</v>
+        <v>181.471690954191</v>
       </c>
       <c r="Y27" t="n">
-        <v>166.0988188154638</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="28">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.854427820673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24643,16 +24645,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>63.71328389118497</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>179.0007763902542</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>358.4325474141941</v>
       </c>
       <c r="C29" t="n">
-        <v>330.4074129430184</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24695,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,10 +24727,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24813,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X30" t="n">
-        <v>166.1891082416369</v>
+        <v>181.471690954191</v>
       </c>
       <c r="Y30" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24880,16 +24882,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>154.8446320166601</v>
       </c>
       <c r="S31" t="n">
-        <v>184.4327210751317</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24917,28 +24919,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>342.3567022976309</v>
+        <v>340.9715975217211</v>
       </c>
       <c r="D32" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>131.6677048218782</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>148.4072047390293</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25044,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>157.2692687373636</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,22 +25086,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>145.2417804883047</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I34" t="n">
-        <v>115.8665979654177</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25160,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,16 +25210,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>211.7617759459959</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V35" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>334.8656218504798</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>208.4992929001388</v>
       </c>
       <c r="W36" t="n">
-        <v>212.111106199079</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y36" t="n">
-        <v>166.0988188154638</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="37">
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>128.4071023966182</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H37" t="n">
-        <v>122.643295545599</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I37" t="n">
-        <v>115.8665979654177</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>70.91042075616336</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25351,10 +25353,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.90593162553662</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>330.4074129430184</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>170.8920126085653</v>
+        <v>186.1745953211195</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25436,16 +25438,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25518,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V39" t="n">
-        <v>193.2167101875847</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>166.0988188154638</v>
+        <v>181.3814015280179</v>
       </c>
     </row>
     <row r="40">
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H40" t="n">
-        <v>122.643295545599</v>
+        <v>139.7784131469302</v>
       </c>
       <c r="I40" t="n">
-        <v>145.472922565994</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25606,13 +25608,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>212.5537663619874</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>186.1257784271966</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25634,10 +25636,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>359.3640175880309</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25679,22 +25681,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U41" t="n">
-        <v>216.4801740798473</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>131.6677048218782</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C42" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>212.111106199079</v>
+        <v>229.1286306766888</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y42" t="n">
-        <v>166.0988188154638</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>157.2656276977065</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25828,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,16 +25842,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W43" t="n">
-        <v>246.9391213747504</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X43" t="n">
-        <v>215.7321030277729</v>
+        <v>200.0893641944063</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25865,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>339.6526005763767</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25916,16 +25918,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>200.5294970799005</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25950,22 +25952,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>135.825319297428</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>263.9566458523602</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>333272.9571474838</v>
+        <v>335005.0929495634</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367155.0035530832</v>
+        <v>335005.0929495632</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367155.0035530832</v>
+        <v>357465.9437586833</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367155.0035530832</v>
+        <v>357465.9437586833</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367155.0035530831</v>
+        <v>357465.9437586834</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367155.0035530834</v>
+        <v>357465.9437586831</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>367155.0035530831</v>
+        <v>357465.9437586831</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367155.0035530833</v>
+        <v>357465.9437586833</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367155.0035530832</v>
+        <v>355802.8125279755</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>333272.9571474838</v>
+        <v>355802.8125279754</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>64504.44331886782</v>
       </c>
       <c r="D2" t="n">
+        <v>64504.44331886784</v>
+      </c>
+      <c r="E2" t="n">
         <v>64504.44331886783</v>
-      </c>
-      <c r="E2" t="n">
-        <v>64504.44331886782</v>
       </c>
       <c r="F2" t="n">
         <v>64504.44331886783</v>
       </c>
       <c r="G2" t="n">
-        <v>64504.44331886783</v>
+        <v>64839.25682440833</v>
       </c>
       <c r="H2" t="n">
-        <v>71053.6796537592</v>
+        <v>64839.25682440832</v>
       </c>
       <c r="I2" t="n">
-        <v>71053.67965375919</v>
+        <v>69180.83107499292</v>
       </c>
       <c r="J2" t="n">
-        <v>71053.67965375919</v>
+        <v>69180.83107499292</v>
       </c>
       <c r="K2" t="n">
-        <v>71053.6796537592</v>
+        <v>69180.83107499294</v>
       </c>
       <c r="L2" t="n">
-        <v>71053.67965375919</v>
+        <v>69180.83107499294</v>
       </c>
       <c r="M2" t="n">
-        <v>71053.67965375919</v>
+        <v>69180.83107499294</v>
       </c>
       <c r="N2" t="n">
-        <v>71053.67965375919</v>
+        <v>69180.83107499294</v>
       </c>
       <c r="O2" t="n">
-        <v>71053.6796537592</v>
+        <v>68859.35582065163</v>
       </c>
       <c r="P2" t="n">
-        <v>64504.44331886783</v>
+        <v>68859.35582065165</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
-        <v>10680.08625919725</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6812.973454767425</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26430,34 +26432,34 @@
         <v>21501.48110628928</v>
       </c>
       <c r="G4" t="n">
-        <v>21501.48110628928</v>
+        <v>21617.05968946909</v>
       </c>
       <c r="H4" t="n">
-        <v>23762.29628838455</v>
+        <v>21617.05968946909</v>
       </c>
       <c r="I4" t="n">
-        <v>23762.29628838455</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="J4" t="n">
-        <v>23762.29628838455</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="K4" t="n">
-        <v>23762.29628838455</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="L4" t="n">
-        <v>23762.29628838455</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="M4" t="n">
-        <v>23762.29628838455</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="N4" t="n">
-        <v>23762.29628838455</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="O4" t="n">
-        <v>23762.29628838455</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="P4" t="n">
-        <v>21501.48110628928</v>
+        <v>23004.80940248714</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="H5" t="n">
-        <v>2406.699719279908</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="I5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="J5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="K5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="L5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="M5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="N5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="O5" t="n">
-        <v>2406.699719279908</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>9375.36221257854</v>
       </c>
       <c r="C6" t="n">
-        <v>9375.362212578533</v>
+        <v>9375.36221257854</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.362212578548</v>
+        <v>9375.362212578555</v>
       </c>
       <c r="E6" t="n">
-        <v>43002.96221257854</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="F6" t="n">
         <v>43002.96221257855</v>
       </c>
       <c r="G6" t="n">
-        <v>43002.96221257855</v>
+        <v>42562.56274235222</v>
       </c>
       <c r="H6" t="n">
-        <v>34204.5973868975</v>
+        <v>43102.43730374557</v>
       </c>
       <c r="I6" t="n">
-        <v>44884.68364609472</v>
+        <v>37574.60050133215</v>
       </c>
       <c r="J6" t="n">
-        <v>44884.68364609472</v>
+        <v>44387.57395609957</v>
       </c>
       <c r="K6" t="n">
-        <v>44884.68364609474</v>
+        <v>44387.57395609959</v>
       </c>
       <c r="L6" t="n">
-        <v>44884.68364609473</v>
+        <v>44387.57395609959</v>
       </c>
       <c r="M6" t="n">
-        <v>44884.68364609472</v>
+        <v>44387.57395609959</v>
       </c>
       <c r="N6" t="n">
-        <v>44884.68364609473</v>
+        <v>44387.57395609959</v>
       </c>
       <c r="O6" t="n">
-        <v>44884.68364609474</v>
+        <v>44296.83271353094</v>
       </c>
       <c r="P6" t="n">
-        <v>43002.96221257855</v>
+        <v>44296.83271353095</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
   </sheetData>
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35890,16 +35892,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36045,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36124,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>37.98452839772582</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O20" t="n">
-        <v>39.58387696184059</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P20" t="n">
-        <v>39.58387696184059</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.58387696184059</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L21" t="n">
-        <v>37.98452839772582</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.58387696184059</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M22" t="n">
-        <v>39.58387696184059</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N22" t="n">
-        <v>39.58387696184059</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O22" t="n">
-        <v>24.58512791403967</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36358,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N23" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P23" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P24" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36524,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36595,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O26" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,10 +36761,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36832,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L29" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M29" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36998,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37072,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L33" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P33" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37235,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37306,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M36" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37472,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37543,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N38" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N39" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,10 +37709,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L41" t="n">
-        <v>37.98452839772582</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P41" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M42" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.58387696184059</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,13 +37943,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
